--- a/documentation/Risk Assessment - After.xlsx
+++ b/documentation/Risk Assessment - After.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\ims-demo\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352606C-CB31-4215-9473-81AEE1768546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6AF414-C08E-4B03-A064-F9FD6EC88E82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8CB24F64-C717-488D-A877-05C866C4B332}"/>
   </bookViews>
@@ -84,25 +84,16 @@
     <t>Colour</t>
   </si>
   <si>
-    <t>Github</t>
-  </si>
-  <si>
     <t>https://github.com/MohamudMussa</t>
   </si>
   <si>
     <t xml:space="preserve">While self isolating I can still use my laptop although I might need time to recover. </t>
   </si>
   <si>
-    <t xml:space="preserve">This can impact the project in many ways. One being that it would affect my ability to work on the project. If covid was to happent to a family member I'd need to take care of them whilst working on this project too. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This will impact the project as I would lose all progress made with this laptop. </t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>I was given a QA community Laptop as well  and this will allow me to switch from my personal Laptop to the QA one if nessessary as my personal laptop is what I'm currently using. I would then fork my repository from github and continue the work on there</t>
   </si>
   <si>
     <t>19/12/2020</t>
@@ -144,18 +135,12 @@
     <t>On agile projects the team is heavily involved in planning and estimating through activities such as XP's planning game and Wideband Delphi workshops. By working in short increments the true velocity of the team quickly emerges and is visible to all stakeholders who are now more closely involved in the project. In short, the true progress is hard to hide and quickly revealed, giving feedback to the stakeholders.</t>
   </si>
   <si>
-    <t xml:space="preserve">Constantly update my github by doing comits regularly. Also </t>
-  </si>
-  <si>
     <t xml:space="preserve">I could have a merge conflicts or overwrite by merging incorrectly. </t>
   </si>
   <si>
     <t>This could impact the project majorly as I would have to start from where the overwrite took place. I would also need to resolve a conflict merge issue</t>
   </si>
   <si>
-    <t xml:space="preserve">Git Merge Conflics </t>
-  </si>
-  <si>
     <t>A day / 2</t>
   </si>
   <si>
@@ -169,6 +154,21 @@
   </si>
   <si>
     <t>Build in small steps, this will allow me to correct myself when I need to. I'd also know when or what is causing the issue as I will be building in increments</t>
+  </si>
+  <si>
+    <t>I was given a QA community Laptop as well  and this will allow me to switch from my personal Laptop to the QA one if necessary as my personal laptop is what I'm currently using. I would then fork my repository from GitHub and continue the work on there</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This can impact the project in many ways. One being that it would affect my ability to work on the project. If COVID-19 was to happen to a family member I'd need to take care of them whilst working on this project too. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Merge Conflicts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constantly update my GitHub by doing commits regularly. Also </t>
   </si>
 </sst>
 </file>
@@ -659,6 +659,42 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -678,42 +714,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1109,44 +1109,44 @@
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="23"/>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="40"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="52"/>
     </row>
     <row r="3" spans="1:24" s="16" customFormat="1" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
@@ -1160,26 +1160,26 @@
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="21"/>
       <c r="I3" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="252" x14ac:dyDescent="0.45">
@@ -1188,47 +1188,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="21"/>
       <c r="I4" s="24"/>
       <c r="J4" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="38"/>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
@@ -1239,42 +1239,42 @@
         <v>43831</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="35"/>
       <c r="H5" s="21"/>
       <c r="I5" s="24"/>
       <c r="J5" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="48"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
     </row>
     <row r="6" spans="1:24" s="16" customFormat="1" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
@@ -1285,44 +1285,44 @@
         <v>43862</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="21"/>
       <c r="I6" s="24"/>
       <c r="J6" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
     </row>
     <row r="7" spans="1:24" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
@@ -1362,17 +1362,17 @@
       <c r="O8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A9" s="4">
@@ -1392,17 +1392,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
       <c r="O9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="54"/>
+        <v>26</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="47"/>
     </row>
     <row r="10" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A10" s="4">
@@ -1422,17 +1422,17 @@
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
       <c r="O10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="54"/>
     </row>
     <row r="11" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A11" s="11">
@@ -1452,17 +1452,17 @@
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
       <c r="O11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49"/>
     </row>
     <row r="12" spans="1:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="11">
@@ -1500,17 +1500,17 @@
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="O13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="54"/>
     </row>
     <row r="14" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A14" s="11">
@@ -1530,17 +1530,17 @@
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
       <c r="O14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49"/>
     </row>
     <row r="15" spans="1:24" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="11">
@@ -1686,21 +1686,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB0BA5692D439F4BB79CC4D90864FB65" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a0b4bc8ff41ed1b65ab69efcd88df2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a228e58f-08c5-4e30-81dc-fb2ae1d06aa5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cccaba783f5d612f80b59805e7d0b95e" ns2:_="">
     <xsd:import namespace="a228e58f-08c5-4e30-81dc-fb2ae1d06aa5"/>
@@ -1878,24 +1863,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8350BFB4-A9D9-4E31-80BD-0DE15D9680ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADDABAF6-F01C-4289-9695-2F24BCAFA78E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26513C23-1B03-419F-B40E-B40C48D3FC52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1911,4 +1894,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADDABAF6-F01C-4289-9695-2F24BCAFA78E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8350BFB4-A9D9-4E31-80BD-0DE15D9680ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>